--- a/taxi.xlsx
+++ b/taxi.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="257">
   <si>
     <t xml:space="preserve">Név</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hajnal-negyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olah Nándor</t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -843,6 +846,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -945,7 +954,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1043,6 +1052,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G150" activeCellId="0" sqref="G150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G154" activeCellId="0" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1190,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1328,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1351,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>42</v>
       </c>
@@ -1397,7 +1410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1420,7 +1433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -1466,7 +1479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -1535,7 +1548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -1719,7 +1732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -1765,7 +1778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>85</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>86</v>
       </c>
@@ -1834,7 +1847,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>90</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>94</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>98</v>
       </c>
@@ -1926,7 +1939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>99</v>
       </c>
@@ -1949,7 +1962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
@@ -1995,7 +2008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>106</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>108</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>112</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>113</v>
       </c>
@@ -2133,7 +2146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>116</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>117</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
@@ -2248,7 +2261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
@@ -2271,7 +2284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>121</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>122</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>123</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>124</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>125</v>
       </c>
@@ -2386,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>127</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -2455,7 +2468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>129</v>
       </c>
@@ -2478,7 +2491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>130</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>131</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>132</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>133</v>
       </c>
@@ -2570,7 +2583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
         <v>134</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>135</v>
       </c>
@@ -2616,7 +2629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>136</v>
       </c>
@@ -2639,7 +2652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>137</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
@@ -2685,7 +2698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>139</v>
       </c>
@@ -2708,7 +2721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
@@ -2731,7 +2744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>141</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>142</v>
       </c>
@@ -2777,7 +2790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>144</v>
       </c>
@@ -2823,7 +2836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>145</v>
       </c>
@@ -2846,7 +2859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
         <v>147</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
         <v>152</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>153</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>154</v>
       </c>
@@ -2961,7 +2974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>155</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>156</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>157</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>158</v>
       </c>
@@ -3053,7 +3066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>159</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>162</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>163</v>
       </c>
@@ -3122,7 +3135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>164</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>166</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
         <v>170</v>
       </c>
@@ -3191,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>171</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>172</v>
       </c>
@@ -3237,7 +3250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>173</v>
       </c>
@@ -3283,7 +3296,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>176</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
         <v>177</v>
       </c>
@@ -3329,7 +3342,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="s">
         <v>181</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
         <v>185</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>186</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>187</v>
       </c>
@@ -3421,7 +3434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>191</v>
       </c>
@@ -3444,7 +3457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>192</v>
       </c>
@@ -3467,7 +3480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>194</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
         <v>195</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
         <v>196</v>
       </c>
@@ -3536,7 +3549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="16" t="s">
         <v>197</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>198</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>199</v>
       </c>
@@ -3605,7 +3618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>200</v>
       </c>
@@ -3628,7 +3641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="18" t="s">
         <v>201</v>
       </c>
@@ -3651,7 +3664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>202</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>203</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>205</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>206</v>
       </c>
@@ -3766,7 +3779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>207</v>
       </c>
@@ -3789,7 +3802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>208</v>
       </c>
@@ -3812,7 +3825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>209</v>
       </c>
@@ -3858,7 +3871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="20" t="s">
         <v>213</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>214</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>214</v>
       </c>
@@ -3927,7 +3940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
         <v>215</v>
       </c>
@@ -3950,7 +3963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
         <v>216</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>217</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>218</v>
       </c>
@@ -4019,7 +4032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
         <v>219</v>
       </c>
@@ -4042,7 +4055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
         <v>222</v>
       </c>
@@ -4088,7 +4101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>223</v>
       </c>
@@ -4111,7 +4124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
         <v>224</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>225</v>
       </c>
@@ -4157,7 +4170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>226</v>
       </c>
@@ -4180,7 +4193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
         <v>228</v>
       </c>
@@ -4203,7 +4216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
         <v>229</v>
       </c>
@@ -4226,7 +4239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
         <v>230</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="22" t="s">
         <v>231</v>
       </c>
@@ -4272,7 +4285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>232</v>
       </c>
@@ -4295,7 +4308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>233</v>
       </c>
@@ -4318,7 +4331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>234</v>
       </c>
@@ -4341,7 +4354,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
         <v>236</v>
       </c>
@@ -4364,7 +4377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>237</v>
       </c>
@@ -4387,7 +4400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
         <v>238</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
         <v>241</v>
       </c>
@@ -4433,7 +4446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>242</v>
       </c>
@@ -4456,7 +4469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>243</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>244</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>245</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>247</v>
       </c>
@@ -4571,7 +4584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>250</v>
       </c>
@@ -4617,7 +4630,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
         <v>252</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>253</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>254</v>
       </c>
@@ -4686,19 +4699,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:G153">
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Központ"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G153"/>
   <conditionalFormatting sqref="E154:E1048576 E139:E152 E1:E34 E36:E37 E39:E42 E44:E47 E49 E51:E78 E80:E82 E84:E85 E87:E94 E96:E106 E108:E117 E119:E122 E124:E126 E129:E132 E134:E137">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="igen" dxfId="0"/>
     <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="nem" dxfId="1"/>
